--- a/data/feature_set_1.xlsx
+++ b/data/feature_set_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="189">
   <si>
     <t>id</t>
   </si>
@@ -565,6 +565,27 @@
   </si>
   <si>
     <t>B3</t>
+  </si>
+  <si>
+    <t>chair_easy</t>
+  </si>
+  <si>
+    <t>ceil_height</t>
+  </si>
+  <si>
+    <t>有点难用</t>
+  </si>
+  <si>
+    <t>有点高/低</t>
+  </si>
+  <si>
+    <t>比较容易</t>
+  </si>
+  <si>
+    <t>有些难用</t>
+  </si>
+  <si>
+    <t>没什么特别</t>
   </si>
 </sst>
 </file>
@@ -963,15 +984,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1062,8 +1083,14 @@
       <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1152,8 +1179,14 @@
       <c r="AD2" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="AE2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1242,8 +1275,14 @@
       <c r="AD3" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="AE3" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1332,8 +1371,14 @@
       <c r="AD4" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="AE4" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1422,8 +1467,14 @@
       <c r="AD5" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="AE5" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1512,8 +1563,14 @@
       <c r="AD6" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="AE6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1602,8 +1659,14 @@
       <c r="AD7" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="AE7" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1692,8 +1755,14 @@
       <c r="AD8" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="AE8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1782,8 +1851,14 @@
       <c r="AD9" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="AE9" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1872,8 +1947,14 @@
       <c r="AD10" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="AE10" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1962,8 +2043,14 @@
       <c r="AD11" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="AE11" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2052,8 +2139,14 @@
       <c r="AD12" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="AE12" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2142,8 +2235,14 @@
       <c r="AD13" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="AE13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2232,8 +2331,14 @@
       <c r="AD14" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="AE14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2322,8 +2427,14 @@
       <c r="AD15" s="8" t="s">
         <v>123</v>
       </c>
+      <c r="AE15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2412,8 +2523,14 @@
       <c r="AD16" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="AE16" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF16" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2502,8 +2619,14 @@
       <c r="AD17" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="AE17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF17" s="8" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2592,8 +2715,14 @@
       <c r="AD18" s="5" t="s">
         <v>123</v>
       </c>
+      <c r="AE18" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2682,8 +2811,14 @@
       <c r="AD19" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="AE19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2772,8 +2907,14 @@
       <c r="AD20" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="AE20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2862,8 +3003,14 @@
       <c r="AD21" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="AE21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF21" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2952,8 +3099,14 @@
       <c r="AD22" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="AE22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF22" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3042,8 +3195,14 @@
       <c r="AD23" s="8" t="s">
         <v>123</v>
       </c>
+      <c r="AE23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF23" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3132,8 +3291,14 @@
       <c r="AD24" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="AE24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF24" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3222,8 +3387,14 @@
       <c r="AD25" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="AE25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF25" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3312,8 +3483,14 @@
       <c r="AD26" s="5" t="s">
         <v>90</v>
       </c>
+      <c r="AE26" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF26" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3402,8 +3579,14 @@
       <c r="AD27" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="AE27" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF27" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3492,6 +3675,48 @@
       <c r="AD28" s="5" t="s">
         <v>171</v>
       </c>
+      <c r="AE28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF28" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/feature_set_1.xlsx
+++ b/data/feature_set_1.xlsx
@@ -984,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF29"/>
+  <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AF29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3682,42 +3682,6 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
